--- a/Lyngr.COM/Requirements/Stories.xlsx
+++ b/Lyngr.COM/Requirements/Stories.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Milward\AppData\Local\Apps\2.0\MJ6PQLNW.4A0\01AJNY09.ALX\gith..tion_317444273a93ac29_0001.0000_855c896e1f9f6b94\vmware-host\Shared Folders\Documents\GitHub\websites\Lyngr.COM\Requirements\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Story 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Data - Spot Details" sheetId="3" r:id="rId3"/>
-    <sheet name="Tasks - Design " sheetId="4" r:id="rId4"/>
+    <sheet name="Tasks - Design " sheetId="4" r:id="rId3"/>
+    <sheet name="Data - Spot Details" sheetId="3" r:id="rId4"/>
+    <sheet name="DESIGN - Screens" sheetId="8" r:id="rId5"/>
+    <sheet name="Data - Map Details" sheetId="5" r:id="rId6"/>
+    <sheet name="Data - MapSpotBridge" sheetId="6" r:id="rId7"/>
+    <sheet name="Data - User Account" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>Story Outline</t>
   </si>
@@ -273,6 +281,72 @@
   </si>
   <si>
     <t>Season, Best Day/Days, Best Time, Start Date, End Date - need to think of routes through the form i.e. don't want it all displayed at once so as you choose certain aspects other parts of the form are displayed.</t>
+  </si>
+  <si>
+    <t>Map Details</t>
+  </si>
+  <si>
+    <t>spotID</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Google Places Info?</t>
+  </si>
+  <si>
+    <t>mapId</t>
+  </si>
+  <si>
+    <t>mapName</t>
+  </si>
+  <si>
+    <t>mapComments</t>
+  </si>
+  <si>
+    <t>varChar</t>
+  </si>
+  <si>
+    <t>text(blob)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ENUM[nightlife, café, restaurant, nature, sports, museum, gallery, exhibition, other]</t>
+  </si>
+  <si>
+    <t>Bridge table for maps</t>
+  </si>
+  <si>
+    <t>Bridge Table for Spots</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Map Spot Bridge</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -376,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,6 +461,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,14 +489,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +498,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,246 +1082,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1359,4 +1209,754 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="J15" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:F29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="8" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lyngr.COM/Requirements/Stories.xlsx
+++ b/Lyngr.COM/Requirements/Stories.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Milward\AppData\Local\Apps\2.0\MJ6PQLNW.4A0\01AJNY09.ALX\gith..tion_317444273a93ac29_0001.0000_855c896e1f9f6b94\vmware-host\Shared Folders\Documents\GitHub\websites\Lyngr.COM\Requirements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8100" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="Data - MapSpotBridge" sheetId="6" r:id="rId7"/>
     <sheet name="Data - User Account" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>Story Outline</t>
   </si>
@@ -347,6 +342,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>asdasdasdasd</t>
   </si>
 </sst>
 </file>
@@ -549,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1037,9 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
@@ -1503,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
